--- a/Documentation/Journal&Plan/JournalDeTravail-ShansheGundishvili.xlsx
+++ b/Documentation/Journal&Plan/JournalDeTravail-ShansheGundishvili.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PHPModel\Documentation\Journal&amp;Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62BCB6D-ACB3-4A9C-B507-3B4DB8F36860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFBCF1D-3935-4123-B2E0-C2B2D80BD599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>Jour</t>
   </si>
@@ -103,6 +103,57 @@
   </si>
   <si>
     <t>frontend Contact, login, register, integration media</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>J'ai commencé la documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comme l'a demandé le premier expert </t>
+  </si>
+  <si>
+    <t>coding</t>
+  </si>
+  <si>
+    <t>recherche pour l'intégration des médias sociaux, Instagram</t>
+  </si>
+  <si>
+    <t>developement</t>
+  </si>
+  <si>
+    <t>intégration Instagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cela a pris beaucoup de temps car j'ai d'abord choisi l'API d'instagram au lieu d'une API tierce. </t>
+  </si>
+  <si>
+    <t>documentation</t>
+  </si>
+  <si>
+    <t>la documentation de la stratégie de test</t>
+  </si>
+  <si>
+    <t>la re-documentation des objectives</t>
+  </si>
+  <si>
+    <t>Login, register, modification de users correction</t>
+  </si>
+  <si>
+    <t>Il s'agit d'un copié-collé du CDC</t>
+  </si>
+  <si>
+    <t>username, firstname, address etc</t>
+  </si>
+  <si>
+    <t>MCD</t>
+  </si>
+  <si>
+    <t>MLD</t>
+  </si>
+  <si>
+    <t>Coding/implementation</t>
   </si>
 </sst>
 </file>
@@ -174,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -214,6 +265,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -497,17 +552,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="65.85546875" customWidth="1"/>
     <col min="6" max="6" width="72.5703125" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
@@ -534,10 +589,10 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="12"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
@@ -563,8 +618,8 @@
         <v>10</v>
       </c>
       <c r="I2" s="11">
-        <f>SUM(C2:C7)</f>
-        <v>17.75</v>
+        <f>SUM(C2:C15)</f>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -669,6 +724,174 @@
         <v>22</v>
       </c>
       <c r="F7" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>45054</v>
+      </c>
+      <c r="B8" s="6">
+        <f t="shared" ref="B8" si="5">WEEKNUM(A8)</f>
+        <v>19</v>
+      </c>
+      <c r="C8" s="7">
+        <v>4</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>45054</v>
+      </c>
+      <c r="B9" s="6">
+        <f t="shared" ref="B9" si="6">WEEKNUM(A9)</f>
+        <v>19</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2.75</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>45055</v>
+      </c>
+      <c r="B10" s="6">
+        <f t="shared" ref="B10" si="7">WEEKNUM(A10)</f>
+        <v>19</v>
+      </c>
+      <c r="C10" s="7">
+        <v>4</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>45055</v>
+      </c>
+      <c r="B11" s="6">
+        <f t="shared" ref="B11" si="8">WEEKNUM(A11)</f>
+        <v>19</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>45057</v>
+      </c>
+      <c r="B12" s="6">
+        <f t="shared" ref="B12:B13" si="9">WEEKNUM(A12)</f>
+        <v>19</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>45057</v>
+      </c>
+      <c r="B13" s="6">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>45058</v>
+      </c>
+      <c r="B14" s="6">
+        <f t="shared" ref="B14" si="10">WEEKNUM(A14)</f>
+        <v>19</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>45058</v>
+      </c>
+      <c r="B15" s="6">
+        <f>WEEKNUM(A15)</f>
+        <v>19</v>
+      </c>
+      <c r="C15" s="7">
+        <v>3.25</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -676,6 +899,7 @@
   <mergeCells count="1">
     <mergeCell ref="H1:I1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentation/Journal&Plan/JournalDeTravail-ShansheGundishvili.xlsx
+++ b/Documentation/Journal&Plan/JournalDeTravail-ShansheGundishvili.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PHPModel\Documentation\Journal&amp;Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFBCF1D-3935-4123-B2E0-C2B2D80BD599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9C0882-CA9E-4B22-B00A-E4A24ABD354D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t>Jour</t>
   </si>
@@ -154,13 +154,34 @@
   </si>
   <si>
     <t>Coding/implementation</t>
+  </si>
+  <si>
+    <t>Lundi 6h45 Mardi-Vendredi 5h15</t>
+  </si>
+  <si>
+    <t>Probeleme de CSS &amp; JS</t>
+  </si>
+  <si>
+    <t>Gallery frontend</t>
+  </si>
+  <si>
+    <t>Login/regsiter backend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visite Expert 2 </t>
+  </si>
+  <si>
+    <t>quelques problèmes avec la documentation</t>
+  </si>
+  <si>
+    <t>Fixing de template en general</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +203,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -225,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -272,6 +299,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,11 +646,11 @@
         <v>10</v>
       </c>
       <c r="I2" s="11">
-        <f>SUM(C2:C15)</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <f>SUM(C2:C21)</f>
+        <v>53.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>45048</v>
       </c>
@@ -642,6 +670,9 @@
       <c r="F3" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="H3" s="14" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -892,6 +923,132 @@
         <v>38</v>
       </c>
       <c r="F15" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>45059</v>
+      </c>
+      <c r="B16" s="6">
+        <f t="shared" ref="B16:B21" si="11">WEEKNUM(A16)</f>
+        <v>19</v>
+      </c>
+      <c r="C16" s="7">
+        <v>4.25</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>45061</v>
+      </c>
+      <c r="B17" s="6">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>4.25</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>45061</v>
+      </c>
+      <c r="B18" s="6">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>45062</v>
+      </c>
+      <c r="B19" s="6">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>45062</v>
+      </c>
+      <c r="B20" s="6">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>45062</v>
+      </c>
+      <c r="B21" s="6">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="C21" s="8">
+        <v>3.25</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Documentation/Journal&Plan/JournalDeTravail-ShansheGundishvili.xlsx
+++ b/Documentation/Journal&Plan/JournalDeTravail-ShansheGundishvili.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PHPModel\Documentation\Journal&amp;Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9C0882-CA9E-4B22-B00A-E4A24ABD354D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167FABEA-9715-4A4B-AB55-B456670E577F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="55">
   <si>
     <t>Jour</t>
   </si>
@@ -175,6 +175,30 @@
   </si>
   <si>
     <t>Fixing de template en general</t>
+  </si>
+  <si>
+    <t>newsletter fini</t>
+  </si>
+  <si>
+    <t>contact fini</t>
+  </si>
+  <si>
+    <t>Gallery frontend fini</t>
+  </si>
+  <si>
+    <t>Gallery backend fini</t>
+  </si>
+  <si>
+    <t>Gallery modify fini</t>
+  </si>
+  <si>
+    <t>documentation general</t>
+  </si>
+  <si>
+    <t>Il n'y avait pas de diagramme avec les exigences que je voulais utiliser, j'ai donc utilisé UML mais cela ne correspond pas aux normes.</t>
+  </si>
+  <si>
+    <t>Structure de code de site</t>
   </si>
 </sst>
 </file>
@@ -296,10 +320,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,10 +641,10 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="13"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
@@ -646,8 +670,8 @@
         <v>10</v>
       </c>
       <c r="I2" s="11">
-        <f>SUM(C2:C21)</f>
-        <v>53.75</v>
+        <f>SUM(C2:C26)</f>
+        <v>67.75</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -670,7 +694,7 @@
       <c r="F3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1043,13 +1067,160 @@
         <v>3.25</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>46</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>45068</v>
+      </c>
+      <c r="B22" s="6">
+        <f t="shared" ref="B22" si="12">WEEKNUM(A22)</f>
+        <v>21</v>
+      </c>
+      <c r="C22" s="8">
+        <v>3.25</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>45068</v>
+      </c>
+      <c r="B23" s="6">
+        <f t="shared" ref="B23:B24" si="13">WEEKNUM(A23)</f>
+        <v>21</v>
+      </c>
+      <c r="C23" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>45069</v>
+      </c>
+      <c r="B24" s="6">
+        <f t="shared" si="13"/>
+        <v>21</v>
+      </c>
+      <c r="C24" s="8">
+        <v>2.25</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>45069</v>
+      </c>
+      <c r="B25" s="6">
+        <f t="shared" ref="B25" si="14">WEEKNUM(A25)</f>
+        <v>21</v>
+      </c>
+      <c r="C25" s="8">
+        <v>2</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>45069</v>
+      </c>
+      <c r="B26" s="6">
+        <f t="shared" ref="B26" si="15">WEEKNUM(A26)</f>
+        <v>21</v>
+      </c>
+      <c r="C26" s="8">
+        <v>2</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>45071</v>
+      </c>
+      <c r="B27" s="6">
+        <f t="shared" ref="B27:B28" si="16">WEEKNUM(A27)</f>
+        <v>21</v>
+      </c>
+      <c r="C27" s="8">
+        <v>5.25</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>45072</v>
+      </c>
+      <c r="B28" s="6">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="C28" s="8">
+        <v>5.25</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Journal&Plan/JournalDeTravail-ShansheGundishvili.xlsx
+++ b/Documentation/Journal&Plan/JournalDeTravail-ShansheGundishvili.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PHPModel\Documentation\Journal&amp;Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167FABEA-9715-4A4B-AB55-B456670E577F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D4EA90-AB66-422F-A025-A792169C4EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
   <si>
     <t>Jour</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>Structure de code de site</t>
+  </si>
+  <si>
+    <t>documentation de toutes les fonctions</t>
+  </si>
+  <si>
+    <t>tagging the code for the script</t>
   </si>
 </sst>
 </file>
@@ -604,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,8 +676,8 @@
         <v>10</v>
       </c>
       <c r="I2" s="11">
-        <f>SUM(C2:C26)</f>
-        <v>67.75</v>
+        <f>SUM(C2:C30)</f>
+        <v>83.5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1221,6 +1227,48 @@
       </c>
       <c r="F28" s="9" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>45076</v>
+      </c>
+      <c r="B29" s="6">
+        <f t="shared" ref="B29" si="17">WEEKNUM(A29)</f>
+        <v>22</v>
+      </c>
+      <c r="C29" s="8">
+        <v>2</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>45076</v>
+      </c>
+      <c r="B30" s="6">
+        <f t="shared" ref="B30" si="18">WEEKNUM(A30)</f>
+        <v>22</v>
+      </c>
+      <c r="C30" s="8">
+        <v>3.25</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Journal&Plan/JournalDeTravail-ShansheGundishvili.xlsx
+++ b/Documentation/Journal&Plan/JournalDeTravail-ShansheGundishvili.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PHPModel\Documentation\Journal&amp;Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D4EA90-AB66-422F-A025-A792169C4EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4303E1B-AF8A-4E1C-ADEE-83A1FD15902A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
   <si>
     <t>Jour</t>
   </si>
@@ -204,7 +204,19 @@
     <t>documentation de toutes les fonctions</t>
   </si>
   <si>
-    <t>tagging the code for the script</t>
+    <t>la création et la finalisation du scénario</t>
+  </si>
+  <si>
+    <t>baliser le code du script</t>
+  </si>
+  <si>
+    <t>J'ai eu des problèmes avec les tabulations dans le fichier tags.txt, mais je les ai résolus rapidement avec l'aide de Stackoverflow.</t>
+  </si>
+  <si>
+    <t>Finalisation de documentation</t>
+  </si>
+  <si>
+    <t>a eu un entretien avec M. Savary pour review</t>
   </si>
 </sst>
 </file>
@@ -610,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,8 +688,8 @@
         <v>10</v>
       </c>
       <c r="I2" s="11">
-        <f>SUM(C2:C30)</f>
-        <v>83.5</v>
+        <f>SUM(C2:C32)</f>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1265,10 +1277,52 @@
         <v>39</v>
       </c>
       <c r="E30" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>45078</v>
+      </c>
+      <c r="B31" s="6">
+        <f t="shared" ref="B31" si="19">WEEKNUM(A31)</f>
+        <v>22</v>
+      </c>
+      <c r="C31" s="8">
+        <v>3.25</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>19</v>
+      <c r="F31" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>45079</v>
+      </c>
+      <c r="B32" s="6">
+        <f t="shared" ref="B32" si="20">WEEKNUM(A32)</f>
+        <v>22</v>
+      </c>
+      <c r="C32" s="8">
+        <v>5.25</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
